--- a/data/trans_dic/P9_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee tableta en su vivienda actual</t>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>27,53%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,65; 39,39</t>
+          <t>10,46; 39,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 53,06</t>
+          <t>7,82; 38,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 39,39</t>
+          <t>21,23; 46,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,44; 42,3</t>
+          <t>20,2; 46,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,01; 36,61</t>
+          <t>19,54; 39,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,12; 43,87</t>
+          <t>17,92; 38,01</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>51,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>49,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>51,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>50,51%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,9; 58,32</t>
+          <t>41,11; 60,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 57,14</t>
+          <t>39,33; 59,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,76; 56,44</t>
+          <t>45,0; 59,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,18; 57,77</t>
+          <t>44,26; 58,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,16; 55,48</t>
+          <t>45,65; 57,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,2; 55,6</t>
+          <t>44,32; 56,07</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,24%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>72,55%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,47; 80,03</t>
+          <t>61,14; 78,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,18; 79,88</t>
+          <t>60,0; 78,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,58; 75,69</t>
+          <t>67,29; 80,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,27; 75,38</t>
+          <t>66,66; 80,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,12; 75,84</t>
+          <t>66,75; 78,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,5; 75,56</t>
+          <t>66,79; 77,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,69; 59,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,77; 59,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,72; 57,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,69; 58,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,67; 57,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,56; 58,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>53,68%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58,53%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>57,96%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>56,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>55,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>47,85; 61,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45,37; 59,84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53,77; 63,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53,23; 63,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>52,87; 60,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51,95; 60,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25221</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>29932</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38237</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44785</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63458</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74716</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10815; 40867</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10084; 49007</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25009; 54783</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28779; 65825</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43206; 86631</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>48630; 103152</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>188257</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>214588</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>202551</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>236925</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>390809</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>451513</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>150480; 221853</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>168918; 253811</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>175796; 233139</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>205584; 273023</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>345375; 432814</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>396167; 501260</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>202031</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>233894</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>267291</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>318394</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>469322</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>552288</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>174818; 223823</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>199734; 259872</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>241973; 290937</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>285554; 344701</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>430880; 503965</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>508437; 592631</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>415510</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>478414</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>508079</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>600103</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>923589</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1078518</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>361363; 462001</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>404394; 533324</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>466786; 553285</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>551087; 656123</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>858227; 985369</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1000887; 1156860</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>